--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\backup\Automação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\PycharmProjects\TranscribExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3221E3BF-951B-4FE3-9163-0D07AF4D1C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF270F5-4BB3-47CA-A7AC-74AECAA31452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{43E0A464-3718-49A7-9ED8-0201244D56EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{43E0A464-3718-49A7-9ED8-0201244D56EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>FILIAL</t>
   </si>
@@ -56,9 +58,6 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>VENDA</t>
-  </si>
-  <si>
     <t>SALARIO</t>
   </si>
   <si>
@@ -93,6 +92,12 @@
   </si>
   <si>
     <t>2000.00</t>
+  </si>
+  <si>
+    <t>PLANILHA2</t>
+  </si>
+  <si>
+    <t>PLANILHA1</t>
   </si>
 </sst>
 </file>
@@ -477,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3549DA3-7643-46D9-ADDD-E643B75B7F8A}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -504,13 +509,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -521,7 +526,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -530,28 +535,28 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>43881</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -560,22 +565,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <v>45005</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -586,4 +591,127 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0A2C6A-C2BE-4054-A233-5A15B79F48C4}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43881</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45005</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01E1195-30C8-43B4-B91C-FD58A50FA0CB}">
+  <dimension ref="K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>